--- a/public/n1.xlsx
+++ b/public/n1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9777" uniqueCount="9111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10348" uniqueCount="9628">
   <si>
     <t>あえて</t>
   </si>
@@ -25399,6 +25399,51 @@
     <t>exampleKorean5</t>
   </si>
   <si>
+    <t>exampleQuiz6</t>
+  </si>
+  <si>
+    <t>exampleJapan6</t>
+  </si>
+  <si>
+    <t>exampleKorean6</t>
+  </si>
+  <si>
+    <t>exampleQuiz7</t>
+  </si>
+  <si>
+    <t>exampleJapan7</t>
+  </si>
+  <si>
+    <t>exampleKorean7</t>
+  </si>
+  <si>
+    <t>exampleQuiz8</t>
+  </si>
+  <si>
+    <t>exampleJapan8</t>
+  </si>
+  <si>
+    <t>exampleKorean8</t>
+  </si>
+  <si>
+    <t>exampleQuiz9</t>
+  </si>
+  <si>
+    <t>exampleJapan10</t>
+  </si>
+  <si>
+    <t>exampleKorean10</t>
+  </si>
+  <si>
+    <t>exampleQuiz11</t>
+  </si>
+  <si>
+    <t>exampleJapan11</t>
+  </si>
+  <si>
+    <t>exampleKorean11</t>
+  </si>
+  <si>
     <t>まい</t>
   </si>
   <si>
@@ -26782,6 +26827,9 @@
     <t>~이라서</t>
   </si>
   <si>
+    <t>화자의 관찰을 나타내는 표현으로, ‘어떤 특수한 상황이라서~’ 라는 의미입니다.</t>
+  </si>
+  <si>
     <t>명사에 직접 접속,  다양향 동사</t>
   </si>
   <si>
@@ -27514,6 +27562,12 @@
     <t>とばかりに</t>
   </si>
   <si>
+    <t>君が悪いのなら謝らないではすまない。</t>
+  </si>
+  <si>
+    <t>그가 잘못한 것이라면 사과해야한다</t>
+  </si>
+  <si>
     <t>ともなしに</t>
   </si>
   <si>
@@ -27527,6 +27581,1503 @@
   </si>
   <si>
     <t>ないではおかない</t>
+  </si>
+  <si>
+    <t>ないではすまない</t>
+  </si>
+  <si>
+    <t>~해야한다,  ~하지 않으면 해결되지 않는다</t>
+  </si>
+  <si>
+    <t>상식적 상식, 도덕적 기준에서 ~해야 한다 라는 의미</t>
+  </si>
+  <si>
+    <t>謝らないではすまない。</t>
+  </si>
+  <si>
+    <t>お返しせずには済まないですね</t>
+  </si>
+  <si>
+    <t>こんなものまで頂いたら、今度お返しせずには済まないですね。</t>
+  </si>
+  <si>
+    <t>이런 것까지 받으면 다음번에 답례를 하지 않으면 안되겠네요</t>
+  </si>
+  <si>
+    <t>手術せずにはすまなくなるだろう</t>
+  </si>
+  <si>
+    <t>検査結果によっては手術せずにはすまなくなるだろう。</t>
+  </si>
+  <si>
+    <t>검사 결과에 따라서는 반드시 수술 해야할거야</t>
+  </si>
+  <si>
+    <t>行かずにはすまない</t>
+  </si>
+  <si>
+    <t>結婚に際しては相手の親に挨拶しに行かずにはすまない。</t>
+  </si>
+  <si>
+    <t>결혼 할 때는 상대방의 부모님께 인사하러 가야한다</t>
+  </si>
+  <si>
+    <t>やらずには済まない</t>
+  </si>
+  <si>
+    <t>国民の命が脅かされている今、議論ではなくもうやらずには済まない状況だ。</t>
+  </si>
+  <si>
+    <t>국민의 목숨이 위협 받고 있는 지금,  의논이 아니라 더 이상 하지 않으면 해결할 수 없는 상황이다</t>
+  </si>
+  <si>
+    <t>問わないでは済まない</t>
+  </si>
+  <si>
+    <t>多くの人をないがしろにする政治判断。その行為の責任は問わないでは済まない。</t>
+  </si>
+  <si>
+    <t>많은 사람들을 소홀히 하는 정치 판단, 그 행위에 책임을 묻게 해야한다.</t>
+  </si>
+  <si>
+    <t>ないまでも</t>
+  </si>
+  <si>
+    <t>~까지는 아니더라도</t>
+  </si>
+  <si>
+    <t>~정도까지는 아니더라도 그와 비슷한 정도이다</t>
+  </si>
+  <si>
+    <t>동사 ない 형</t>
+  </si>
+  <si>
+    <t>かけないまでも</t>
+  </si>
+  <si>
+    <t>家に帰ってこられないなら、電話をかけないまでも、せめてメールぐらいしてほしい。</t>
+  </si>
+  <si>
+    <t>집에 올 수 없다면 전화를 걸지 않더라도 적어도 메일은 보냈으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>言えないまでも</t>
+  </si>
+  <si>
+    <t>テニスは特技とは言えないまでも、趣味だと言えるぐらいになりたい。</t>
+  </si>
+  <si>
+    <t>테니스는 특기라고 할 수 없지만 취미라고 할 수 있을 정도가 되고 싶다.</t>
+  </si>
+  <si>
+    <t>至らないまでも</t>
+  </si>
+  <si>
+    <t>毎日タバコを吸って、お酒ばかり飲んでいたら、死に至らないまでも、大きな病気になるよ。</t>
+  </si>
+  <si>
+    <t>매일 담배를 피우고 술만 마시다간 죽지 않아도 큰 병에 걸려.</t>
+  </si>
+  <si>
+    <t>ならないまでも</t>
+  </si>
+  <si>
+    <t>こんなにたくさん買っているのだから、半額にはならないまでも、せめて少しくらい値引きしてほしい。</t>
+  </si>
+  <si>
+    <t>이렇게 많이 사니까 반값은 안 되더라도 적어도 조금은 깎아줬으면 좋겠어.</t>
+  </si>
+  <si>
+    <t>なれないまでも</t>
+  </si>
+  <si>
+    <t>このまま一生懸命仕事を続けていれば、部長にはなれないまでも、課長にはなれるだろう。</t>
+  </si>
+  <si>
+    <t>이대로 열심히 일한다면 부장은 까지는 아니라도 과장은 되겠지</t>
+  </si>
+  <si>
+    <t>ないものでもない</t>
+  </si>
+  <si>
+    <t>~하지 않는 것도 아니다,  ~못 할 것도 없다</t>
+  </si>
+  <si>
+    <t>경우에 따라서는 ~할 수도 있다는 가능성을 나타낸다</t>
+  </si>
+  <si>
+    <t>ない 형</t>
+  </si>
+  <si>
+    <t>買えないものでもない</t>
+  </si>
+  <si>
+    <t>新しく発売されたスマホは少し高いが、買えないものでもない。</t>
+  </si>
+  <si>
+    <t>새로 출시된 스마트폰은 조금 비싸지만, 살 수 없는 것도 아니다.</t>
+  </si>
+  <si>
+    <t>食べれないものでもないが</t>
+  </si>
+  <si>
+    <t>日本の納豆は食べれないものでもないが、あまり好きじゃない。</t>
+  </si>
+  <si>
+    <t>일본의 낫토는 먹을 수 없는 것도 아니지만, 별로 좋아하지 않는다.</t>
+  </si>
+  <si>
+    <t>やらないものでもないんだけどね</t>
+  </si>
+  <si>
+    <t>きちんと誠意を見せてくれるなら、許してやらないものでもないんだけどね。</t>
+  </si>
+  <si>
+    <t>제대로 성의를 보인다면 용서해 주지 않는 것도 아니지만.</t>
+  </si>
+  <si>
+    <t>もわからないものでもないんだけど</t>
+  </si>
+  <si>
+    <t>ジョンさんの気持ちもわからないものでもないんだけど、やっぱり上司に発言する時には注意が必要だよ。</t>
+  </si>
+  <si>
+    <t>존씨의 기분도 모르는 것도 아니지만, 역시 상사에게 발언할 때는 주의가 필요해.</t>
+  </si>
+  <si>
+    <t>着れないものでもないけど</t>
+  </si>
+  <si>
+    <t>娘のいらなくなった服を私が着れないものでもないけど、デザインがちょっと。</t>
+  </si>
+  <si>
+    <t>딸이 필요 없게 된 옷을 내가 입을 수 없는 것도 아니지만, 디자인이 좀</t>
+  </si>
+  <si>
+    <t>読まないものでもないんですが</t>
+  </si>
+  <si>
+    <t>本を読まないものでもないんですが、漫画の方が好きです。</t>
+  </si>
+  <si>
+    <t>책을 읽지도 않습니다만, 만화를 더 좋아합니다.</t>
+  </si>
+  <si>
+    <t>行かないものでもないんですが</t>
+  </si>
+  <si>
+    <t>映画館に行かないものでもないんですが、パソコンで映画を見たほうが多いですね。</t>
+  </si>
+  <si>
+    <t>영화관에 가지 않아도 됩니다만, 컴퓨터로 영화를 보는 쪽이 많네요.</t>
+  </si>
+  <si>
+    <t>ながらに / ながらの</t>
+  </si>
+  <si>
+    <t>~인 채로, ~인 상태로 / ~그대로의</t>
+  </si>
+  <si>
+    <t>관용적으로 사용될 때 많음, 生まれながら (태어날 때부터), いつもながら (항상, 늘), 涙ながら(눈물을 흘리면서), 昔ながら (옛날 그대로)</t>
+  </si>
+  <si>
+    <t>동사 ます형, 명사에 직접 접속</t>
+  </si>
+  <si>
+    <t>昔ながら</t>
+  </si>
+  <si>
+    <t>昔ながらの伝統を大切にしよう。</t>
+  </si>
+  <si>
+    <t>옛날 그대로의 전통을 소중히하자</t>
+  </si>
+  <si>
+    <t>生まれながら</t>
+  </si>
+  <si>
+    <t>人には必ず生まれながらの使命がある。</t>
+  </si>
+  <si>
+    <t>인간에게는 반드시 태어날 때부터의 사명이 있다</t>
+  </si>
+  <si>
+    <t>いつもながら</t>
+  </si>
+  <si>
+    <t>今日見たあの子はいつもながら可愛かった。</t>
+  </si>
+  <si>
+    <t>오늘 본 그 아이는 언제나 귀여웠다</t>
+  </si>
+  <si>
+    <t>涙ながらに</t>
+  </si>
+  <si>
+    <t>涙ながらに「本当にありがとうございます」と何度も言われた。</t>
+  </si>
+  <si>
+    <t>눈물을 흘리면서 "정말로 감사합니다" 라고 몇번이나 들었다</t>
+  </si>
+  <si>
+    <t>生まれながらに</t>
+  </si>
+  <si>
+    <t>人間は生まれながらにして異なる個性と才能、環境を持つ。</t>
+  </si>
+  <si>
+    <t>인간은 태어날 때부터 다른 개성과 재능, 환경을 갖는다.</t>
+  </si>
+  <si>
+    <t>王子は生まれながらに孤独であった。</t>
+  </si>
+  <si>
+    <t>왕자는 태어날 때부터 고독했다.</t>
+  </si>
+  <si>
+    <t>昔ながらの</t>
+  </si>
+  <si>
+    <t>街から昔ながらの喫茶店が減っている。</t>
+  </si>
+  <si>
+    <t>거리에서 옛날 그대로의 찻집이 줄어들고 있다.</t>
+  </si>
+  <si>
+    <t>数年ぶりの再会を涙ながらに喜んだ。</t>
+  </si>
+  <si>
+    <t>몇 년 만의 재회를 눈물 흘리며 기뻐했다.</t>
+  </si>
+  <si>
+    <t>おじいちゃんは孫の成長を涙ながらに喜んでいた。</t>
+  </si>
+  <si>
+    <t>할아버지는 손자의 성장을 눈물 흘리며 기뻐하셨다.</t>
+  </si>
+  <si>
+    <t>彼の決断力にはいつもながら脱帽です</t>
+  </si>
+  <si>
+    <t>그의 결단력에는 언제나 경의를 표합니다.</t>
+  </si>
+  <si>
+    <t>ながらも</t>
+  </si>
+  <si>
+    <t>~면서도, ~이지만</t>
+  </si>
+  <si>
+    <t>역접 표현</t>
+  </si>
+  <si>
+    <t>동사ます형,い형용사 기본형, な형용사 어간, 명사</t>
+  </si>
+  <si>
+    <t>言っておきながら</t>
+  </si>
+  <si>
+    <t>彼女はダイエットすると言っておきながら、今日もケーキを食べている。</t>
+  </si>
+  <si>
+    <t>그녀는 다이어트 한다고 해놓고 오늘도 케이크를 먹고 있어.</t>
+  </si>
+  <si>
+    <t>しておきながら</t>
+  </si>
+  <si>
+    <t>12時会う約束しておきながら、田中さんは来なかった。</t>
+  </si>
+  <si>
+    <t>12시 만나기로 약속해 놓고 다나카씨는 오지 않았다.</t>
+  </si>
+  <si>
+    <t>知っていながら</t>
+  </si>
+  <si>
+    <t>悪いことだと知っていながら、彼は平気で嘘をつく</t>
+  </si>
+  <si>
+    <t>나쁜 일인 줄 알면서도 그는 아무렇지도 않게 거짓말을 한다</t>
+  </si>
+  <si>
+    <t>彼は洋楽が嫌いだと言っておきながら、海外アーティストのCDをたくさん持っている。</t>
+  </si>
+  <si>
+    <t>그는 서양 음악을 싫어한다고 해놓고 해외 아티스트 CD를 많이 가지고 있다.</t>
+  </si>
+  <si>
+    <t>残念ながら</t>
+  </si>
+  <si>
+    <t>アルバイトの面接に行ったが、残念ながら不採用だった。</t>
+  </si>
+  <si>
+    <t>아르바이트 면접에 갔지만 아쉽게도 채용되지 않았다.</t>
+  </si>
+  <si>
+    <t>子供ながら</t>
+  </si>
+  <si>
+    <t>ミクちゃんは子供ながら、しっかりとしている。</t>
+  </si>
+  <si>
+    <t>미쿠짱은 어린아이이면서도 야무진 모습이다.</t>
+  </si>
+  <si>
+    <t>小柄ながら</t>
+  </si>
+  <si>
+    <t>彼は小柄ながら、すごい力があって誰よりも強い。</t>
+  </si>
+  <si>
+    <t>그는 작지만 대단한 힘이 있고 누구보다 강하다.</t>
+  </si>
+  <si>
+    <t>貧しいながらも</t>
+  </si>
+  <si>
+    <t>この地域の人々は貧しいながらも、幸せに暮しているそうです。</t>
+  </si>
+  <si>
+    <t>이 지역 사람들은 가난하면서도 행복하게 살고 있대요.</t>
+  </si>
+  <si>
+    <t>敵ながら</t>
+  </si>
+  <si>
+    <t>敵ながら見事な戦術だ。</t>
+  </si>
+  <si>
+    <t>적이지만 훌륭한 전술이다.</t>
+  </si>
+  <si>
+    <t>なくして（は）</t>
+  </si>
+  <si>
+    <t>~없이(는)</t>
+  </si>
+  <si>
+    <t>앞부분이 없으면 뒷부분은 성립되지 않는다</t>
+  </si>
+  <si>
+    <t>努力なくして</t>
+  </si>
+  <si>
+    <t>努力なくして、成功などあり得ない。</t>
+  </si>
+  <si>
+    <t>노력 없이 성공이란 있을 수 없다.</t>
+  </si>
+  <si>
+    <t>解決なくしては</t>
+  </si>
+  <si>
+    <t>この問題の解決なくしては、我が社の未来はない。</t>
+  </si>
+  <si>
+    <t>이 문제 해결 없이는 우리 회사의 미래가 없다.</t>
+  </si>
+  <si>
+    <t>了承なくして</t>
+  </si>
+  <si>
+    <t>私の親はとても厳しく、親の了承なくして結婚することは許されない。</t>
+  </si>
+  <si>
+    <t>우리 부모는 매우 엄격해서 부모의 허락 없이 결혼하는 것은 허용되지 않는다.</t>
+  </si>
+  <si>
+    <t>親の愛なくしては</t>
+  </si>
+  <si>
+    <t>親の愛なくしては、子は十分に育たない。</t>
+  </si>
+  <si>
+    <t>부모의 사랑 없이는 아이가 충분히 자라지 않는다.</t>
+  </si>
+  <si>
+    <t>なくしては</t>
+  </si>
+  <si>
+    <t>パスポートなくしては、海外へは行けません。</t>
+  </si>
+  <si>
+    <t>여권 없이는 해외에 갈 수 없어요.</t>
+  </si>
+  <si>
+    <t>援助なくしては</t>
+  </si>
+  <si>
+    <t>別れた夫の援助なくしては、一人で子供育てることなんてできない。</t>
+  </si>
+  <si>
+    <t>헤어진 남편의 도움 없이는 혼자서 아이를 키울 수 없다.</t>
+  </si>
+  <si>
+    <t>辞書なくしては</t>
+  </si>
+  <si>
+    <t>私は辞書なくしては、日本語の新聞が読めません。</t>
+  </si>
+  <si>
+    <t>저는 사전 없이는 일본어 신문을 읽을 수 없습니다.</t>
+  </si>
+  <si>
+    <t>なしに（は）</t>
+  </si>
+  <si>
+    <t>~없이는, ~을 하지 않고는</t>
+  </si>
+  <si>
+    <t>援助なしに</t>
+  </si>
+  <si>
+    <t>親からの援助なしに、あのホテルで結婚式をすることはできない。</t>
+  </si>
+  <si>
+    <t>부모님의 도움 없이는 저 호텔에서 결혼식을 할 수 없다.</t>
+  </si>
+  <si>
+    <t>彼なしに</t>
+  </si>
+  <si>
+    <t>彼なしに、このプロジェクトの成功はあり得なかった。</t>
+  </si>
+  <si>
+    <t>그 없이는 이 프로젝트의 성공은 있을 수 없었다.</t>
+  </si>
+  <si>
+    <t>エアコンなしには</t>
+  </si>
+  <si>
+    <t>日本の夏はエアコンなしには一日も過ごせません。</t>
+  </si>
+  <si>
+    <t>일본의 여름은 에어컨 없이는 하루도 보낼 수 없습니다.</t>
+  </si>
+  <si>
+    <t>ご支援なしでは</t>
+  </si>
+  <si>
+    <t>皆様の暖かいご支援なしでは、この金メダルを手にすることは不可能でした。</t>
+  </si>
+  <si>
+    <t>여러분의 따뜻한 지원 없이는 이 금메달을 획득하는 것이 불가능했습니다.</t>
+  </si>
+  <si>
+    <t>ならではの</t>
+  </si>
+  <si>
+    <t>~만의, ~아니면 안 되는</t>
+  </si>
+  <si>
+    <t>여기 아니면 볼 수 없는 이곳 만의~、 다른 사람은 불가능한 오직 이 사람만 가능한~</t>
+  </si>
+  <si>
+    <t>日本ならではの雰囲気を味わたいなら、京都に行くといいでしょう。</t>
+  </si>
+  <si>
+    <t>일본 특유의 분위기를 맛보고 싶다면 교토에 가면 좋을 것입니다.</t>
+  </si>
+  <si>
+    <t>このバッグショップの鞄は手作りならではの味わいが魅力だ。</t>
+  </si>
+  <si>
+    <t>이 가방 가게의 가방은 수제만의 맛이 매력이다.</t>
+  </si>
+  <si>
+    <t>私は旅行するとき、その土地ならではの食べ物を食べるのが好きだ。</t>
+  </si>
+  <si>
+    <t>나는 여행할 때 그 고장만의 음식을 먹는 것을 좋아해.</t>
+  </si>
+  <si>
+    <t>キムさんの作文は彼ならではの面白さがある。</t>
+  </si>
+  <si>
+    <t>김 씨의 작문은 그만의 재미가 있다.</t>
+  </si>
+  <si>
+    <t>なり</t>
+  </si>
+  <si>
+    <t>~하자 마자</t>
+  </si>
+  <si>
+    <t>‘~하자 마자’ 라는 의미로, ～が早いか、～や否や、～たとたん 과 비슷한 표현이다.</t>
+  </si>
+  <si>
+    <t>동사 기본형</t>
+  </si>
+  <si>
+    <t>切るなり</t>
+  </si>
+  <si>
+    <t>キムさんを電話を切るなり、大きなため息をついた。</t>
+  </si>
+  <si>
+    <t>김 씨를 전화 끊자마자 한숨을 크게 내쉬었다.</t>
+  </si>
+  <si>
+    <t>見るなり</t>
+  </si>
+  <si>
+    <t>トムさんはJLPTの結果を見るなり、大きな声を出して喜んだ。</t>
+  </si>
+  <si>
+    <t>톰 씨는 JLPT 결과를 보자마자 큰 소리로 기뻐했다.</t>
+  </si>
+  <si>
+    <t>赤ん坊は、私の顔を見るなり、大声で泣き出した。</t>
+  </si>
+  <si>
+    <t>아기는 내 얼굴을 보자마자 큰 소리로 울기 시작했다.</t>
+  </si>
+  <si>
+    <t>帰って来るなり</t>
+  </si>
+  <si>
+    <t>うちの子は、家に帰って来るなり、テレビゲームを始めた。</t>
+  </si>
+  <si>
+    <t>우리 아이는 집에 돌아오자마자 비디오 게임을 시작했다.</t>
+  </si>
+  <si>
+    <t>出るなり</t>
+  </si>
+  <si>
+    <t>家を出るなり、雨が降りだした。</t>
+  </si>
+  <si>
+    <t>집을 나서자마자 비가 내리기 시작했다.</t>
+  </si>
+  <si>
+    <t>入ってくるなり</t>
+  </si>
+  <si>
+    <t>部長は会議室に入ってくるなり、新製品のアイデアについて話し始めた。</t>
+  </si>
+  <si>
+    <t>부장은 회의실로 들어오자마자 신제품 아이디어에 대해 이야기하기 시작했다.</t>
+  </si>
+  <si>
+    <t>見合わせるなり</t>
+  </si>
+  <si>
+    <t>二人のボクサーは顔を見合わせるなり、睨み合った。</t>
+  </si>
+  <si>
+    <t>두 권투선수는 얼굴을 마주보자마자 서로 노려봤다.</t>
+  </si>
+  <si>
+    <t>なり～なり</t>
+  </si>
+  <si>
+    <t>~하든 ~하든, ~든지 ~든지</t>
+  </si>
+  <si>
+    <t>예시 중에 하나를 선택한다는 의미</t>
+  </si>
+  <si>
+    <t>동사 기본형, 명사에 직접 접속</t>
+  </si>
+  <si>
+    <t>料理するなり</t>
+  </si>
+  <si>
+    <t>冷蔵庫に色々入っているから、料理するなり、冷凍食品をチンするなりして食べてね。</t>
+  </si>
+  <si>
+    <t>냉장고에 여러 가지가 들어 있으니까 요리하든 냉동식품을 데우든 해서 먹어.</t>
+  </si>
+  <si>
+    <t>煮るなり</t>
+  </si>
+  <si>
+    <t>煮るなり焼くなり、好きなように調理してください。</t>
+  </si>
+  <si>
+    <t>삶거나 굽거나 원하는 대로 조리하세요.</t>
+  </si>
+  <si>
+    <t>調べるなり</t>
+  </si>
+  <si>
+    <t>わからないことがあったら、先生に聞くなり、辞書で調べるなりしてください。</t>
+  </si>
+  <si>
+    <t>모르는 것이 있으면 선생님께 물어보든지 사전에 찾아보든지 하세요.</t>
+  </si>
+  <si>
+    <t>掃除するなり</t>
+  </si>
+  <si>
+    <t>休みで仕事がないなら、掃除するなり洗濯するなり、家事を手伝ったらどう？</t>
+  </si>
+  <si>
+    <t>쉬는 날이라 일이 없다면 청소하든 빨래하든 집안일을 도와주는 게 어때?</t>
+  </si>
+  <si>
+    <t>捨てるなり</t>
+  </si>
+  <si>
+    <t>もったいないのもわかるけど、売るなり捨てるなりしないと物がたまっていく一方よ。</t>
+  </si>
+  <si>
+    <t>아까운 것도 알지만 팔거나 버리거나 하지 않으면 물건이 쌓일 뿐이야.</t>
+  </si>
+  <si>
+    <t>なりに、なりの</t>
+  </si>
+  <si>
+    <t>나름대로</t>
+  </si>
+  <si>
+    <t>~에 적합한, ~에 어울리는</t>
+  </si>
+  <si>
+    <t>명사, い형용사, な형용사 어간</t>
+  </si>
+  <si>
+    <t>自分なりに</t>
+  </si>
+  <si>
+    <t>自分のペースで、自分なりに楽しみながら続けていきたい。</t>
+  </si>
+  <si>
+    <t>자신의 페이스로, 나름대로 즐기면서 계속해 나가고 싶다.</t>
+  </si>
+  <si>
+    <t>私なりに</t>
+  </si>
+  <si>
+    <t>今回得た知識について私なりにまとめてみた。</t>
+  </si>
+  <si>
+    <t>이번에 얻은 지식에 대해서 나름대로 정리해봤어.</t>
+  </si>
+  <si>
+    <t>無いなりに</t>
+  </si>
+  <si>
+    <t>やる気が無くても、無いなりに生きていける。</t>
+  </si>
+  <si>
+    <t>의욕이 없어도, 없는 대로 살아갈 수 있다.</t>
+  </si>
+  <si>
+    <t>弱いなりに</t>
+  </si>
+  <si>
+    <t>弱いなら、弱いなりに頑張らないといけない。</t>
+  </si>
+  <si>
+    <t>약하면 약한대로 열심히 해야지.</t>
+  </si>
+  <si>
+    <t>下手なりに</t>
+  </si>
+  <si>
+    <t>下手でも下手なりに頑張ってみよう。</t>
+  </si>
+  <si>
+    <t>서툴러도 못하는 대로 열심히 해보자.</t>
+  </si>
+  <si>
+    <t>安いなりの</t>
+  </si>
+  <si>
+    <t>安いのには安いなりの理由があるものだ。</t>
+  </si>
+  <si>
+    <t>싼 데는 싼 나름의 이유가 있기 마련이다.</t>
+  </si>
+  <si>
+    <t>私なりの</t>
+  </si>
+  <si>
+    <t>人生とは何か、私なりの答えに辿り着いた。</t>
+  </si>
+  <si>
+    <t>인생이란 무엇인가, 나만의 대답에 도달했다.</t>
+  </si>
+  <si>
+    <t>金持ちなりの</t>
+  </si>
+  <si>
+    <t>金持ちには金持ちなりの心配事があるものだ。</t>
+  </si>
+  <si>
+    <t>부자에게는 부자 나름의 걱정거리가 있기 마련이다.</t>
+  </si>
+  <si>
+    <t>未経験なら</t>
+  </si>
+  <si>
+    <t>未経験なら未経験なりに試行錯誤してやってみればいい。</t>
+  </si>
+  <si>
+    <t>미경험이라면 미경험대로 시행착오를 겪어서 해보면 된다.</t>
+  </si>
+  <si>
+    <t>それなりに</t>
+  </si>
+  <si>
+    <t>やったことはありませんが、見たことはありますのでそれなりに自信はあります。</t>
+  </si>
+  <si>
+    <t>해본 적은 없지만 본 적은 있기 때문에 나름대로 자신은 있습니다.</t>
+  </si>
+  <si>
+    <t>に（は）あたらない</t>
+  </si>
+  <si>
+    <t>~할 만큼은 아니다, ~할 필요 없다</t>
+  </si>
+  <si>
+    <t>当たる(해당하다)에서 파생된 문법으로, ~에 해당하지 않는다, ~할 만큼은 아니다, ~할 필요 없다</t>
+  </si>
+  <si>
+    <t>には当たりません</t>
+  </si>
+  <si>
+    <t>私の国では１時間の遅刻は驚くには当たりません。</t>
+  </si>
+  <si>
+    <t>우리나라에서는 1시간 지각은 놀랄 필요도 없어요</t>
+  </si>
+  <si>
+    <t>にはあたりません</t>
+  </si>
+  <si>
+    <t>彼の実力からいって、JLPT N1に合格しても驚くにはあたりません。</t>
+  </si>
+  <si>
+    <t>그의 실력으로 보아 JLPT N1에 합격해도 놀랄 필요는 없습니다</t>
+  </si>
+  <si>
+    <t>人気監督の新作映画は思った以上にレビューが低く、見るに当たらないそうです。</t>
+  </si>
+  <si>
+    <t>인기 감독의 신작 영화는 생각보다 리뷰가 낮아서 볼만하지 않다고 합니다.</t>
+  </si>
+  <si>
+    <t>に当たらないよ</t>
+  </si>
+  <si>
+    <t>ちょっと怒られたぐらいで、そこまで落ち込むに当たらないよ。</t>
+  </si>
+  <si>
+    <t>좀 혼났을 정도로 그렇게까지 우울할 건 없어.</t>
+  </si>
+  <si>
+    <t>当たらないそうだ</t>
+  </si>
+  <si>
+    <t>彼のやったことは犯罪には当たらないそうだ。</t>
+  </si>
+  <si>
+    <t>그가 한 일은 범죄에 해당하지 않는다고 한다</t>
+  </si>
+  <si>
+    <t>にはあたらない</t>
+  </si>
+  <si>
+    <t>弱い者を守るのは当然なことだから、私がしたことは称賛にはあたらない。</t>
+  </si>
+  <si>
+    <t>약한 자를 보호하는 것은 당연한 일이니 내가 한 일은 칭찬을 받을 필요는 없다</t>
+  </si>
+  <si>
+    <t>人にはそれぞれの生き方があるので、高校に行かないことは非難するにはあたらない。</t>
+  </si>
+  <si>
+    <t>사람에게는 각자의 삶의 방식이 있기 때문에 고등학교에 가지 않는 것은 비난할 필요가 없다.</t>
+  </si>
+  <si>
+    <t>最近は、LINEで新年の挨拶を行っても、失礼にはあたらないと言われている。</t>
+  </si>
+  <si>
+    <t>최근에는 LINE으로 신년 인사를 해도 실례가 되지 않는다고 한다.</t>
+  </si>
+  <si>
+    <t>スケジュール通り順調に進んでおりますので、ご心配にはあたりません。</t>
+  </si>
+  <si>
+    <t>스케줄대로 순조롭게 진행되고 있으니 걱정하실 필요 없습니다.</t>
+  </si>
+  <si>
+    <t>にあって（は）</t>
+  </si>
+  <si>
+    <t>~에, ~에서</t>
+  </si>
+  <si>
+    <t>특별한 상황・장소에서 라는 의미</t>
+  </si>
+  <si>
+    <t>この不景気にあって、私たちがすべきことは何だと思いますか。</t>
+  </si>
+  <si>
+    <t>이 불경기에 우리가 해야할 것은 무엇이라 생각하십니까</t>
+  </si>
+  <si>
+    <t>大企業じゃなくてもいいので、不況下にあっても、成長し続けられる会社に僕は就職したいと思っている。</t>
+  </si>
+  <si>
+    <t>대기업이 아니여도 좋으니까, 불경기에서도 계속 성장하는 회사에 취업하고 싶다</t>
+  </si>
+  <si>
+    <t>山根部長は、普段めちゃくちゃ怖いけど、家庭にあって私たちが想像できないほど優しいパパだそうだよ。</t>
+  </si>
+  <si>
+    <t>야마네 부장님은 평소 엄청 무섭지만,  가정에서 ㅜ리가 상상할 수 없는 정도 상냥한 아빠래</t>
+  </si>
+  <si>
+    <t>～に至る / ～に至って</t>
+  </si>
+  <si>
+    <t>~ 에 이르다 / ~에 이르러서</t>
+  </si>
+  <si>
+    <t>여러 단계를 거쳐 최종단계에 도달하다.</t>
+  </si>
+  <si>
+    <t>に至って</t>
+  </si>
+  <si>
+    <t>店を構えるに至って、ターゲットとなる客層を意識することはかなり大事だ。</t>
+  </si>
+  <si>
+    <t>가게를 차리기에 이르러 타깃이 되는 손님층을 의식하는 것은 상당히 중요하다.</t>
+  </si>
+  <si>
+    <t>に至り</t>
+  </si>
+  <si>
+    <t>海外留学するに至り、初めて自国を客観的に見ることができるようになったと思う。</t>
+  </si>
+  <si>
+    <t>해외 유학을 가기에 이르러 비로소 자국을 객관적으로 볼 수 있게 되었다고 생각한다.</t>
+  </si>
+  <si>
+    <t>この車は購入するに至って年収審査がある。審査に通らなければ購入できない。</t>
+  </si>
+  <si>
+    <t>이 차는 구입하기에 이르러 연봉 심사가 있다.심사를 통과하지 않으면 구입할 수 없다.</t>
+  </si>
+  <si>
+    <t>今に至って</t>
+  </si>
+  <si>
+    <t>今に至って今さらそんなことを言うのはおかしい。</t>
+  </si>
+  <si>
+    <t>이제 와서 그런 말을 하는 것은 이상하다.</t>
+  </si>
+  <si>
+    <t>先生に注意されるに至り、ようやく自分の間違いに気づいた。</t>
+  </si>
+  <si>
+    <t>선생님께 주의를 받기에 이르렀고, 그제서야 자신의 실수를 깨달았다.</t>
+  </si>
+  <si>
+    <t>に至るまで</t>
+  </si>
+  <si>
+    <t>9時間に至るまで、警察の取り調べは続けられた。</t>
+  </si>
+  <si>
+    <t>9시간에 이르기까지 경찰 조사는 계속됐다.</t>
+  </si>
+  <si>
+    <t>このアニメは子供から大人に至るまで幅広い層で人気があります。</t>
+  </si>
+  <si>
+    <t>이 애니메이션은 어린이부터 어른에 이르기까지 폭넓은 층에서 인기가 있습니다.</t>
+  </si>
+  <si>
+    <t>肩から指先に至るまで、少し痛みがる。</t>
+  </si>
+  <si>
+    <t>어깨부터 손가락 끝까지 약간 아프다</t>
+  </si>
+  <si>
+    <t>現在に至るまで、この事件の真相は解明されていない。</t>
+  </si>
+  <si>
+    <t>현재까지 이 사건의 진상은 밝혀지지 않았다.</t>
+  </si>
+  <si>
+    <t>にかかわる</t>
+  </si>
+  <si>
+    <t>~에 관련된</t>
+  </si>
+  <si>
+    <t>목숨 / 생사 / 명예와 같이 아주 중대한 것과 관련이 있다</t>
+  </si>
+  <si>
+    <t>命に関わる</t>
+  </si>
+  <si>
+    <t>命に関わる病気ではないので、安心してください。</t>
+  </si>
+  <si>
+    <t>생명과 관련된 질병이 아니기 때문에 안심하십시오.</t>
+  </si>
+  <si>
+    <t>に関わってくる</t>
+  </si>
+  <si>
+    <t>同じミスを繰り返すのは信用問題に関わってくる。</t>
+  </si>
+  <si>
+    <t>같은 실수를 반복하는 것은 신용 문제와 관련된다</t>
+  </si>
+  <si>
+    <t>に関わる</t>
+  </si>
+  <si>
+    <t>お客様のプライバシーに関わることですのでお伝えできません。</t>
+  </si>
+  <si>
+    <t>고객님의 사생활과 관련된 일이라 말씀드릴 수 없습니다.</t>
+  </si>
+  <si>
+    <t>関わってくる</t>
+  </si>
+  <si>
+    <t>将来、十分な年金がもらえないと、私たちの将来の生活に大きく関わってくる。</t>
+  </si>
+  <si>
+    <t>장래, 충분한 연금을 받지 못하면, 우리의 장래 생활에 크게 관련 된다.</t>
+  </si>
+  <si>
+    <t>にかたくない</t>
+  </si>
+  <si>
+    <t>~하기 어렵지 않다, ~하고도 남는다</t>
+  </si>
+  <si>
+    <t>想像(する)、察する 등에 자주 붙는다.</t>
+  </si>
+  <si>
+    <t>若くして母を失った子の気持ちは想像にかたくない</t>
+  </si>
+  <si>
+    <t>젊은 나이에 엄마를 잃은 아이의 기분은 상상하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>友人の変わり果てた姿をみて、どんなに驚いたか想像にかたくない。</t>
+  </si>
+  <si>
+    <t>친구의 달라진 모습을 보고 얼마나 놀랐을지 상상하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>津波で家を失った人々のショックは、想像にかたくない。</t>
+  </si>
+  <si>
+    <t>쓰나미로 집을 잃은 사람들의 충격은 상상하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>このままの状況が続くと、日本の経済はダメになることは想像にかたくない。</t>
+  </si>
+  <si>
+    <t>이대로의 상황이 계속되면, 일본의 경제는 망치는 것은 상상하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>なぜ彼があのような行動をとったのか、事情を聞いてみれば理解にかたくない。</t>
+  </si>
+  <si>
+    <t>왜 그가 그런 행동을 했는지 사정을 들어보면 이해하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>消費税の増税は国民にとって、大きな負担になることは理解にかたくない。</t>
+  </si>
+  <si>
+    <t>소비세 증세는 국민에게 큰 부담이 된다는 것은 이해하기 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>にして</t>
+  </si>
+  <si>
+    <t>1. ~이기 때문에 2. ~라 할지라도, ~도, ~의 경우에도 3. ~인 동시에 4. ~에(수량 강조) 5. ~하고도, ~하면서 6. ~에게 7. ~이 되어서, ~에 와서</t>
+  </si>
+  <si>
+    <t>예문으로 익히는게 바람직함</t>
+  </si>
+  <si>
+    <t>彼は人気グループ歌手にして、有名な作家だ</t>
+  </si>
+  <si>
+    <t>그는 인기 그룹 가수 인동시에 유명한 작가이다</t>
+  </si>
+  <si>
+    <t>彼女は女優にして映画監督です</t>
+  </si>
+  <si>
+    <t>그녀는 배우인 동시에 영화감독이다</t>
+  </si>
+  <si>
+    <t>日本料理ってはなんとも繊細にして味に深みがある</t>
+  </si>
+  <si>
+    <t>일본 음식은 참으로 섬세하면서 맛에 깊이가 있다</t>
+  </si>
+  <si>
+    <t>王の瞳には優しさにして冷酷さが混じっていた</t>
+  </si>
+  <si>
+    <t>왕의 눈동자에 상냥함과 냉혹함이 석여있었다</t>
+  </si>
+  <si>
+    <t>この親にしてこの子だ</t>
+  </si>
+  <si>
+    <t>그 부모에 그 자식이다</t>
+  </si>
+  <si>
+    <t>五回目にしてやっとJLPTに合格した</t>
+  </si>
+  <si>
+    <t>5번에 겨우 JLPT에 합격했다</t>
+  </si>
+  <si>
+    <t>あの人は30歳にして、大学に入学した</t>
+  </si>
+  <si>
+    <t>저 사람은 30살에 대학교에 입학했다</t>
+  </si>
+  <si>
+    <t>交通事故に遭ったものの、幸いにして、軽傷で済んだそうです</t>
+  </si>
+  <si>
+    <t>교통사고를 당했지만 다행이도 경상으로 끝났다고 합니다</t>
+  </si>
+  <si>
+    <t>先生は不幸にして、亡くなられた</t>
+  </si>
+  <si>
+    <t>선생님은 불행히도 돌아가셨다</t>
+  </si>
+  <si>
+    <t>彼にして、こんなミスをするとは誰も考えられなかった</t>
+  </si>
+  <si>
+    <t>그도 이런 실수를 할거라고 누구도 생각하지 못했다</t>
+  </si>
+  <si>
+    <t>に即して</t>
+  </si>
+  <si>
+    <t>~에 입각하여</t>
+  </si>
+  <si>
+    <t>앞의 내용을 기준으로 한다는 의미</t>
+  </si>
+  <si>
+    <t>最近は事実に即した報道をしていないマスメディアが増えてきたように思う。</t>
+  </si>
+  <si>
+    <t>최근에는 사실에 입각한 보도를 하지 않는 매스미디어가 많아진 것 같다.</t>
+  </si>
+  <si>
+    <t>実際に即した改善案を提示していただけないと、現場はますます混乱する一方でございます。</t>
+  </si>
+  <si>
+    <t>실제 즉각적인 개선안을 제시해주지 않으면 현장은 더욱 혼란스러울 뿐입니다.</t>
+  </si>
+  <si>
+    <t>学校の規則に則して、髪は黒にしなければならない。</t>
+  </si>
+  <si>
+    <t>학교 규칙에 따라 머리는 검은색으로 해야 한다.</t>
+  </si>
+  <si>
+    <t>～に堪える / ～に堪えない</t>
+  </si>
+  <si>
+    <t>~할 만한 / (차마) ~할 수 없다, 정말~하다</t>
+  </si>
+  <si>
+    <t>～に堪える는 ‘할 만한 가치가 있다’는 의미가 있고, ～に堪えない는 심리적으로 불편함을 느낄 만큼 ‘차마~할 수 없다’, 또는 어떤 감정을 강하게 느낄 때 ‘정말 ~하다’로 사용합니다.</t>
+  </si>
+  <si>
+    <t>に堪える</t>
+  </si>
+  <si>
+    <t>今年は鑑賞に堪える日本の映画が多くて、とてもよかった。</t>
+  </si>
+  <si>
+    <t>올해는 감상할 만한 일본 영화가 많아서 너무 좋았다.</t>
+  </si>
+  <si>
+    <t>このアニメは子供向けに作らていますが、大人でも見るに堪える内容です。</t>
+  </si>
+  <si>
+    <t>이 애니메이션은 어린이용으로 만들었지만 어른들도 볼만한 내용입니다.</t>
+  </si>
+  <si>
+    <t>に堪えない</t>
+  </si>
+  <si>
+    <t>いくつか作品を見せてもらったが、どれも見るに堪えないほどの出来栄えだった。</t>
+  </si>
+  <si>
+    <t>몇 편의 작품을 보여주었지만, 어느 것도 보기 힘들 정도의 성과였다.</t>
+  </si>
+  <si>
+    <t>同僚と飲みに行くと、いつも上司や先輩の悪口ばかりで聞くに堪えない。</t>
+  </si>
+  <si>
+    <t>동료와 술을 마시러 가면 항상 상사나 선배의 욕뿐이어서 차마 들을 수 없다</t>
+  </si>
+  <si>
+    <t>に堪えません</t>
+  </si>
+  <si>
+    <t>５年間、皆さんには本当にお世話になり、感謝の念に堪えません。</t>
+  </si>
+  <si>
+    <t>5년 동안 여러분께 정말 신세지고 정말 감사드립니다.</t>
+  </si>
+  <si>
+    <t>JLPTにも合格できて、第一志望の学校にも行けて、本当に喜びに堪えません。</t>
+  </si>
+  <si>
+    <t>JLPT에도 합격할 수 있었고 제1지망학교에도 갈 수 있어서 정말 기뻐요.</t>
+  </si>
+  <si>
+    <t>に足る</t>
+  </si>
+  <si>
+    <t>~할 만한</t>
+  </si>
+  <si>
+    <t>~할 수 있는 / ~할 만한</t>
+  </si>
+  <si>
+    <t>田中先輩は信頼に足る人だから、困ったことがあったら彼に聞くといいよ。</t>
+  </si>
+  <si>
+    <t>다나카 선배는 신뢰할 만한 사람이니까 곤란한 일이 있으면 그에게 물어보면 좋아.</t>
+  </si>
+  <si>
+    <t>私の上司は仕事もできるし、部下をきちんと教育してくれるし、尊敬するに足る人物だ。</t>
+  </si>
+  <si>
+    <t>내 상사는 일도 잘하고 부하들을 잘 교육시켜주며 존경할 만한 인물이야.</t>
+  </si>
+  <si>
+    <t>インターネット上にはデマ情報も多く、全てのものが信頼に足る情報だとは言えない。</t>
+  </si>
+  <si>
+    <t>인터넷상에는 유언비어 정보도 많아 모든 것이 신뢰할 만한 정보라고 할 수 없다.</t>
+  </si>
+  <si>
+    <t>満点ではなかったものの、満足に足る結果だった。</t>
+  </si>
+  <si>
+    <t>만점은 아니었지만 만족할 만한 결과였다.</t>
+  </si>
+  <si>
+    <t>このオンラインコースは少し値段が高いが、これまでの実績を見れば受けるに足る内容だ。</t>
+  </si>
+  <si>
+    <t>이 온라인 코스는 조금 가격이 비싸지만 지금까지의 실적을 보면 받을 만한 내용이다.</t>
+  </si>
+  <si>
+    <t>にひきかえ</t>
+  </si>
+  <si>
+    <t>~와 반대로, ~와 대조적으로, ~와 달리</t>
+  </si>
+  <si>
+    <t>주관적인 생각이 포함되어 있다</t>
+  </si>
+  <si>
+    <t>兄にひきかえ、弟は全然勉強しないし、家の手伝いもしないし本当に困るよ。</t>
+  </si>
+  <si>
+    <t>형과 달리 동생은 전혀 공부도 안 하고 집안일도 안 하고 정말 곤란해.</t>
+  </si>
+  <si>
+    <t>スポーツ万能で頭もいい弟にひきかえ、僕は何をやってもダメだ。</t>
+  </si>
+  <si>
+    <t>스포츠 만능이고 머리도 좋은 동생과 달리, 나는 무엇을 해도 안 된다.</t>
+  </si>
+  <si>
+    <t>昔の子は外で体を動かすことが多かったのにひきかえ、今の子はスマホや携帯ゲームに夢中で全然外で遊ばなくなった。</t>
+  </si>
+  <si>
+    <t>옛날 아이는 밖에서 몸을 움직이는 일이 많았는데 반해 지금 아이는 스마트폰이나 모바일 게임에 열중해 전혀 밖에서 놀지 않게 됐다.</t>
+  </si>
+  <si>
+    <t>去年にひきかえ、今年は台風や地震など自然災害が多いなあ。</t>
+  </si>
+  <si>
+    <t>작년에 대조적으로 올해는 태풍이나 지진 등 자연재해가 많네.</t>
+  </si>
+  <si>
+    <t>弟は背が高くてイケメンなのにひきかえ、何で俺はチビでブサイクなんだ。</t>
+  </si>
+  <si>
+    <t>동생은 키가 크고 잘생긴 것과 반대로 왜 나는 꼬맹이고 못생겼어.</t>
+  </si>
+  <si>
+    <t>去年のJLPTにひきかえ、今年のはとても難しかった。</t>
+  </si>
+  <si>
+    <t>작년 JLPT에 비해 올해 것은 매우 어려웠다.</t>
+  </si>
+  <si>
+    <t>にもまして</t>
+  </si>
+  <si>
+    <t>~보다 더</t>
+  </si>
+  <si>
+    <t>앞 부분에 제시된 것 이상으로 정도가 심하다</t>
+  </si>
+  <si>
+    <t>今年は去年にもまして、暑くジメジメする。</t>
+  </si>
+  <si>
+    <t>올해는 작년보다 더 덥고 습하다.</t>
+  </si>
+  <si>
+    <t>この店、いつにもまして人が多い。何かあるのかな。</t>
+  </si>
+  <si>
+    <t>이 가게 그 어느 때보다 사람이 많다.뭐가 있나.</t>
+  </si>
+  <si>
+    <t>以前にもましてニキビが増えてる。</t>
+  </si>
+  <si>
+    <t>예전보다 여드름이 더 많아졌어.</t>
+  </si>
+  <si>
+    <t>今年の花火大会は例年にもまして、多くの方が来場されました。</t>
+  </si>
+  <si>
+    <t>올해 불꽃놀이는 예년에도 불구하고 많은 분들이 방문하셨습니다.</t>
+  </si>
+  <si>
+    <t>海外旅行中はいつにもまして、注意を払わないと。</t>
+  </si>
+  <si>
+    <t>해외여행 중에는 평소보다 더 주의를 기울여야 해.</t>
+  </si>
+  <si>
+    <t>たくさん寝たのに、昨日にもまして頭痛がひどい。</t>
+  </si>
+  <si>
+    <t>많이 잤는데 어제보다 두통이 심하다.</t>
+  </si>
+  <si>
+    <t>ジョンさんはこのクラスの誰にもまして日本語の勉強を頑張っている。</t>
+  </si>
+  <si>
+    <t>존씨는 이 반 누구보다 일본어 공부를 더 열심히 하고 있다.</t>
+  </si>
+  <si>
+    <t>の至りだ</t>
+  </si>
+  <si>
+    <t>~의 극치이다, ~하기 그지없다</t>
+  </si>
+  <si>
+    <t>정도가 심하다는 의미 (光栄の至り、感激の至り、幸甚の至り등)</t>
+  </si>
+  <si>
+    <t>の至りです</t>
+  </si>
+  <si>
+    <t>このような式典に参加でき、光栄の至りです。</t>
+  </si>
+  <si>
+    <t>이런 식전에 참석하게 되어 영광스럽기 그지없습니다.</t>
+  </si>
+  <si>
+    <t>の至りでございます</t>
+  </si>
+  <si>
+    <t>皆様のご声援に感激の至りでございます。</t>
+  </si>
+  <si>
+    <t>여러분의 성원에 감격하기 그지없습니다.</t>
+  </si>
+  <si>
+    <t>幸甚の至りです</t>
+  </si>
+  <si>
+    <t>少しでもお役に立てば幸甚の至りです。</t>
+  </si>
+  <si>
+    <t>조금이라도 도움이 된다면 대단히 다행입니다.</t>
+  </si>
+  <si>
+    <t>光栄の至りでした</t>
+  </si>
+  <si>
+    <t>限られた時間でしたが、大変貴重なお話しを伺え、その場にいられましたことが光栄の至りでした。</t>
+  </si>
+  <si>
+    <t>한정된 시간이었지만 매우 귀중한 이야기를 들을 수 있었고, 그 자리에 있게 된 것이 영광스럽기 그지없었습니다.</t>
+  </si>
+  <si>
+    <t>感謝の至りです</t>
+  </si>
+  <si>
+    <t>多くの方に応援して頂いて感謝の至りです。</t>
+  </si>
+  <si>
+    <t>많은 분들이 응원해 주셔서 감사하기 그지없습니다.</t>
+  </si>
+  <si>
+    <t>恐縮の至りです</t>
+  </si>
+  <si>
+    <t>褒めていただき恐縮の至りです。</t>
+  </si>
+  <si>
+    <t>칭찬해 주셔서 황송하기 짝이 없습니다.</t>
+  </si>
+  <si>
+    <t>の至り</t>
+  </si>
+  <si>
+    <t>若気の至りを経験してこそ本当の大人になれる。</t>
+  </si>
+  <si>
+    <t>젊음의 극치를 겪어야 진정한 어른이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>の極みだ</t>
+  </si>
+  <si>
+    <t>정도가 심하다는 의미 (痛恨の極み、疲労の極み、贅沢の極み、感激の極み등)</t>
+  </si>
+  <si>
+    <t>交通事故で多くの人が亡くなり、痛恨の極みだ。</t>
+  </si>
+  <si>
+    <t>교통사고로 많은 사람이 사망해 통한스럽기 그지없다</t>
+  </si>
+  <si>
+    <t>の極み</t>
+  </si>
+  <si>
+    <t>贅沢の極みを尽くした最高級料理</t>
+  </si>
+  <si>
+    <t>사치의 극치를 다한 최고급 요리</t>
+  </si>
+  <si>
+    <t>世界的に有名な彼と握手できて感激の極みだ。</t>
+  </si>
+  <si>
+    <t>세계적으로 유명한 그와 악수할 수 있어 감격스럽기 그지없다</t>
+  </si>
+  <si>
+    <t>極み</t>
+  </si>
+  <si>
+    <t>アロママッサージで「癒しの極み」を体験してみませんか。</t>
+  </si>
+  <si>
+    <t>아로마 마사지로 '힐링의 극치'를 체험해 보지 않겠습니까 ?</t>
+  </si>
+  <si>
+    <t>一度しかない人生において、自分の時間を他人のために使うのは無駄の極みだ。</t>
+  </si>
+  <si>
+    <t>한 번밖에 없는 인생에서 자신의 시간을 남을 위해 쓰는 것은 헛수고의 극치다.</t>
+  </si>
+  <si>
+    <t>会う女性みんなに片っ端から告白するのはゲスの極みだ。</t>
+  </si>
+  <si>
+    <t>만나는 여자 모두에게 단번에 고백하는 것은 상놈의 극치다.</t>
+  </si>
+  <si>
+    <t>おかわり無料なのに気づかなかった。痛恨の極みだ。</t>
+  </si>
+  <si>
+    <t>리필 무료인 줄 몰랐어.뼈아픈 심정이다.</t>
+  </si>
+  <si>
+    <t>はおろか</t>
+  </si>
+  <si>
+    <t>~은 커녕, ~은 물론, ~은 고사하고</t>
+  </si>
+  <si>
+    <t>[Ａはおろか、Ｂも～ない] 형태로 자주 쓰이며, 뒷부분에는 부정적인 느낌의 표현이 온다</t>
+  </si>
+  <si>
+    <t>正社員はおろか、アルバイトすらなかなか見つからない。</t>
+  </si>
+  <si>
+    <t>정규직은 커녕 아르바이트도 좀처럼 구하기 힘들다.</t>
+  </si>
+  <si>
+    <t>読んだことはおろか、見たことさえない。</t>
+  </si>
+  <si>
+    <t>읽은 적은 고사하고 본 적도 없다.</t>
+  </si>
+  <si>
+    <t>ここは田舎すぎて、コンビニはおろか飲食店すらない。</t>
+  </si>
+  <si>
+    <t>여기는 너무 시골이라서 편의점은 고사하고 음식점조차 없어.</t>
+  </si>
+  <si>
+    <t>休憩はおろか、トイレに行く時間さえも取れない。</t>
+  </si>
+  <si>
+    <t>휴식은 커녕 화장실에 갈 시간조차 낼 수 없다.</t>
+  </si>
+  <si>
+    <t>事業を継続することはおろか、軌道に乗せることさえもできていない。</t>
+  </si>
+  <si>
+    <t>사업을 계속하기는커녕 궤도에 오르지도 못하고 있다.</t>
+  </si>
+  <si>
+    <t>休みの日は家はおろか布団からも出ずにごろごろしていた。</t>
+  </si>
+  <si>
+    <t>쉬는 날은 집은 커녕 이불에서도 나오지 않고 빈둥빈둥 놀고 있었다.</t>
+  </si>
+  <si>
+    <t>賠償はおろか謝りすらしていない。</t>
+  </si>
+  <si>
+    <t>배상은커녕 사과조차 하지 않고 있다.</t>
+  </si>
+  <si>
+    <t>このキノコは食べるのはおろか、触ることさえ危険である。</t>
+  </si>
+  <si>
+    <t>이 버섯은 먹기는커녕 만지는 것조차 위험하다.</t>
+  </si>
+  <si>
+    <t>47都道府県の位置はおろか、名前さえも正しく言えない。</t>
+  </si>
+  <si>
+    <t>47 도도부현의 위치는 고사하고 이름조차도 제대로 말할 수 없다.</t>
+  </si>
+  <si>
+    <t>両親はおろか、祖父母も大学を出ていない。</t>
+  </si>
+  <si>
+    <t>부모는 고사하고 조부모도 대학을 나오지 않았다.</t>
   </si>
   <si>
     <t>~がらみ</t>
@@ -27713,7 +29264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -27760,6 +29311,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF7A7A7A"/>
+      <name val="&quot;Noto Serif JP&quot;"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -27781,7 +29337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -27812,6 +29368,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -37687,13 +39246,13 @@
     <col customWidth="1" min="9" max="9" width="77.63"/>
     <col customWidth="1" min="10" max="10" width="84.13"/>
     <col customWidth="1" min="11" max="11" width="19.38"/>
-    <col customWidth="1" min="12" max="12" width="86.0"/>
-    <col customWidth="1" min="13" max="13" width="78.38"/>
+    <col customWidth="1" min="12" max="12" width="89.63"/>
+    <col customWidth="1" min="13" max="13" width="99.75"/>
     <col customWidth="1" min="14" max="14" width="17.63"/>
     <col customWidth="1" min="15" max="15" width="77.63"/>
-    <col customWidth="1" min="16" max="16" width="60.5"/>
+    <col customWidth="1" min="16" max="16" width="76.63"/>
     <col customWidth="1" min="17" max="17" width="21.0"/>
-    <col customWidth="1" min="18" max="18" width="64.38"/>
+    <col customWidth="1" min="18" max="18" width="101.0"/>
     <col customWidth="1" min="19" max="19" width="64.75"/>
     <col customWidth="1" min="20" max="20" width="16.0"/>
     <col customWidth="1" min="21" max="21" width="58.88"/>
@@ -37768,89 +39327,134 @@
       <c r="S1" s="1" t="s">
         <v>8340</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>8341</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>8342</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>8343</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>8344</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8345</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>8346</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>8347</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>8348</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>8349</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>8350</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>8351</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>8352</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>8353</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>8354</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>8355</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8341</v>
+        <v>8356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8342</v>
+        <v>8357</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8343</v>
+        <v>8358</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8344</v>
+        <v>8359</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8345</v>
+        <v>8360</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8346</v>
+        <v>8361</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8347</v>
+        <v>8362</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8348</v>
+        <v>8363</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8349</v>
+        <v>8364</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>8350</v>
+        <v>8365</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>8351</v>
+        <v>8366</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>8352</v>
+        <v>8367</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>8353</v>
+        <v>8368</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>8354</v>
+        <v>8369</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>8355</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8356</v>
+        <v>8371</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8357</v>
+        <v>8372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8358</v>
+        <v>8373</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8359</v>
+        <v>8374</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8360</v>
+        <v>8375</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8361</v>
+        <v>8376</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>8362</v>
+        <v>8377</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8363</v>
+        <v>8378</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>8364</v>
+        <v>8379</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8365</v>
+        <v>8380</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -37870,34 +39474,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8366</v>
+        <v>8381</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8367</v>
+        <v>8382</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8368</v>
+        <v>8383</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8359</v>
+        <v>8374</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8369</v>
+        <v>8384</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8370</v>
+        <v>8385</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8371</v>
+        <v>8386</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>8372</v>
+        <v>8387</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8373</v>
+        <v>8388</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>8374</v>
+        <v>8389</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -37926,43 +39530,43 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>8375</v>
+        <v>8390</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8376</v>
+        <v>8391</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8377</v>
+        <v>8392</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8378</v>
+        <v>8393</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8379</v>
+        <v>8394</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8380</v>
+        <v>8395</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8381</v>
+        <v>8396</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>8382</v>
+        <v>8397</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8383</v>
+        <v>8398</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>8384</v>
+        <v>8399</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>8379</v>
+        <v>8394</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>8385</v>
+        <v>8400</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>8386</v>
+        <v>8401</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -37988,61 +39592,61 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>8387</v>
+        <v>8402</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8388</v>
+        <v>8403</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8389</v>
+        <v>8404</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8390</v>
+        <v>8405</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8391</v>
+        <v>8406</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8392</v>
+        <v>8407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8393</v>
+        <v>8408</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>8394</v>
+        <v>8409</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8395</v>
+        <v>8410</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>8396</v>
+        <v>8411</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>8397</v>
+        <v>8412</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>8398</v>
+        <v>8413</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>8399</v>
+        <v>8414</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>8400</v>
+        <v>8415</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>8401</v>
+        <v>8416</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>8402</v>
+        <v>8417</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>8403</v>
+        <v>8418</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>8404</v>
+        <v>8419</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>8405</v>
+        <v>8420</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -38062,25 +39666,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>8406</v>
+        <v>8421</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8407</v>
+        <v>8422</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8408</v>
+        <v>8423</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8409</v>
+        <v>8424</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8410</v>
+        <v>8425</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8411</v>
+        <v>8426</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8412</v>
+        <v>8427</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -38112,25 +39716,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>8413</v>
+        <v>8428</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8414</v>
+        <v>8429</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8389</v>
+        <v>8404</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8415</v>
+        <v>8430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8416</v>
+        <v>8431</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8417</v>
+        <v>8432</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8418</v>
+        <v>8433</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -38162,52 +39766,52 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>8419</v>
+        <v>8434</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8420</v>
+        <v>8435</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8421</v>
+        <v>8436</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8422</v>
+        <v>8437</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8423</v>
+        <v>8438</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8424</v>
+        <v>8439</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8425</v>
+        <v>8440</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>8426</v>
+        <v>8441</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8427</v>
+        <v>8442</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>8428</v>
+        <v>8443</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>8429</v>
+        <v>8444</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8430</v>
+        <v>8445</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>8431</v>
+        <v>8446</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>8432</v>
+        <v>8447</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>8433</v>
+        <v>8448</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>8434</v>
+        <v>8449</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -38230,34 +39834,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>8435</v>
+        <v>8450</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8451</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8436</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8421</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>8437</v>
+        <v>8452</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8438</v>
+        <v>8453</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8439</v>
+        <v>8454</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8440</v>
+        <v>8455</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>8441</v>
+        <v>8456</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>8442</v>
+        <v>8457</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>8443</v>
+        <v>8458</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -38286,26 +39890,26 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8444</v>
+        <v>8459</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8445</v>
+        <v>8460</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8446</v>
+        <v>8461</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8447</v>
+        <v>8462</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8448</v>
+        <v>8463</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>8449</v>
+        <v>8464</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8450</v>
+        <v>8465</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -38325,54 +39929,54 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8451</v>
+        <v>8466</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8452</v>
+        <v>8467</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8453</v>
+        <v>8468</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8454</v>
+        <v>8469</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8455</v>
+        <v>8470</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8456</v>
+        <v>8471</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>8457</v>
+        <v>8472</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>8458</v>
+        <v>8473</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>8459</v>
+        <v>8474</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>8460</v>
+        <v>8475</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>8461</v>
+        <v>8476</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>8462</v>
+        <v>8477</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>8463</v>
+        <v>8478</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>8461</v>
+        <v>8476</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>8464</v>
+        <v>8479</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>8465</v>
+        <v>8480</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -38392,43 +39996,43 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8466</v>
+        <v>8481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8467</v>
+        <v>8482</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8468</v>
+        <v>8483</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8470</v>
+        <v>8485</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8471</v>
+        <v>8486</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>8472</v>
+        <v>8487</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8473</v>
+        <v>8488</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>8474</v>
+        <v>8489</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>8475</v>
+        <v>8490</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>8476</v>
+        <v>8491</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>8477</v>
+        <v>8492</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -38451,27 +40055,27 @@
         <v>663</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8478</v>
+        <v>8493</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8479</v>
+        <v>8494</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8480</v>
+        <v>8495</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>8481</v>
+        <v>8496</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8482</v>
+        <v>8497</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>8483</v>
+        <v>8498</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>8484</v>
+        <v>8499</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -38491,30 +40095,30 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>8485</v>
+        <v>8500</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8486</v>
+        <v>8501</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8487</v>
+        <v>8502</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8488</v>
+        <v>8503</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>8489</v>
+        <v>8504</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>8490</v>
+        <v>8505</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>8491</v>
+        <v>8506</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>8492</v>
+        <v>8507</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -38534,37 +40138,37 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>8493</v>
+        <v>8508</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8494</v>
+        <v>8509</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8495</v>
+        <v>8510</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8496</v>
+        <v>8511</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>8497</v>
+        <v>8512</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8498</v>
+        <v>8513</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>8499</v>
+        <v>8514</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8500</v>
+        <v>8515</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>8501</v>
+        <v>8516</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>8502</v>
+        <v>8517</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -38584,30 +40188,30 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>8503</v>
+        <v>8518</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8504</v>
+        <v>8519</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8505</v>
+        <v>8520</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8506</v>
+        <v>8521</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>8507</v>
+        <v>8522</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8508</v>
+        <v>8523</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>8509</v>
+        <v>8524</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8510</v>
+        <v>8525</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -38627,30 +40231,30 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>8526</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8527</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8528</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8511</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8512</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8513</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8496</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>8514</v>
+        <v>8529</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>8515</v>
+        <v>8530</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>8516</v>
+        <v>8531</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>8517</v>
+        <v>8532</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -38670,41 +40274,41 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>8518</v>
+        <v>8533</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8519</v>
+        <v>8534</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8520</v>
+        <v>8535</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8521</v>
+        <v>8536</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7591</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8522</v>
+        <v>8537</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8523</v>
+        <v>8538</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>8524</v>
+        <v>8539</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>8525</v>
+        <v>8540</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>8526</v>
+        <v>8541</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>8527</v>
+        <v>8542</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>8528</v>
+        <v>8543</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -38730,61 +40334,61 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>8529</v>
+        <v>8544</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8530</v>
+        <v>8545</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8531</v>
+        <v>8546</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8532</v>
+        <v>8547</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8533</v>
+        <v>8548</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8534</v>
+        <v>8549</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8535</v>
+        <v>8550</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>8533</v>
+        <v>8548</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>8536</v>
+        <v>8551</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>8537</v>
+        <v>8552</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>8538</v>
+        <v>8553</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>8539</v>
+        <v>8554</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>8540</v>
+        <v>8555</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>8538</v>
+        <v>8553</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>8541</v>
+        <v>8556</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>8542</v>
+        <v>8557</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>8538</v>
+        <v>8553</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>8543</v>
+        <v>8558</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>8544</v>
+        <v>8559</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
@@ -38804,78 +40408,78 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>8545</v>
+        <v>8560</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8546</v>
+        <v>8561</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8547</v>
+        <v>8562</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8548</v>
+        <v>8563</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>8549</v>
+        <v>8564</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8550</v>
+        <v>8565</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>8551</v>
+        <v>8566</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>8552</v>
+        <v>8567</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>8553</v>
+        <v>8568</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>8554</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>8555</v>
+        <v>8570</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8556</v>
+        <v>8571</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8557</v>
+        <v>8572</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8496</v>
+        <v>8511</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8555</v>
+        <v>8570</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8558</v>
+        <v>8573</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>8559</v>
+        <v>8574</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>8560</v>
+        <v>8575</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>8561</v>
+        <v>8576</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>8562</v>
+        <v>8577</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>8560</v>
+        <v>8575</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>8563</v>
+        <v>8578</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>8564</v>
+        <v>8579</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -38899,37 +40503,37 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>8565</v>
+        <v>8580</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8566</v>
+        <v>8581</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8567</v>
+        <v>8582</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8568</v>
+        <v>8583</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>8569</v>
+        <v>8584</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>8570</v>
+        <v>8585</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>8571</v>
+        <v>8586</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>8572</v>
+        <v>8587</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>8573</v>
+        <v>8588</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>8574</v>
+        <v>8589</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -38949,44 +40553,44 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8575</v>
+        <v>8590</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8576</v>
+        <v>8591</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8577</v>
+        <v>8592</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>8578</v>
+        <v>8593</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>8579</v>
+        <v>8594</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>8580</v>
+        <v>8595</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>8581</v>
+        <v>8596</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>8582</v>
+        <v>8597</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>8583</v>
+        <v>8598</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>8584</v>
+        <v>8599</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>8585</v>
+        <v>8600</v>
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -39006,41 +40610,41 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>8586</v>
+        <v>8601</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8587</v>
+        <v>8602</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8588</v>
+        <v>8603</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8589</v>
+        <v>8604</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
-        <v>8590</v>
+        <v>8605</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>8591</v>
+        <v>8606</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>8592</v>
+        <v>8607</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>8593</v>
+        <v>8608</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>8594</v>
+        <v>8609</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>8595</v>
+        <v>8610</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>8596</v>
+        <v>8611</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>8597</v>
+        <v>8612</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -39066,41 +40670,41 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>8598</v>
+        <v>8613</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8599</v>
+        <v>8614</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8600</v>
+        <v>8615</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8589</v>
+        <v>8604</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>8601</v>
+        <v>8616</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8602</v>
+        <v>8617</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>8603</v>
+        <v>8618</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>8604</v>
+        <v>8619</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>8605</v>
+        <v>8620</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>8606</v>
+        <v>8621</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>8607</v>
+        <v>8622</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>8608</v>
+        <v>8623</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -39126,27 +40730,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>8609</v>
+        <v>8624</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8610</v>
+        <v>8625</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8611</v>
+        <v>8626</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>8612</v>
+        <v>8627</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>8613</v>
+        <v>8628</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>8614</v>
+        <v>8629</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>8615</v>
+        <v>8630</v>
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -39166,37 +40770,37 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>8616</v>
+        <v>8631</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8617</v>
+        <v>8632</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8618</v>
+        <v>8633</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8619</v>
+        <v>8634</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>8620</v>
+        <v>8635</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8621</v>
+        <v>8636</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>8622</v>
+        <v>8637</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>8623</v>
+        <v>8638</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>8624</v>
+        <v>8639</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>8625</v>
+        <v>8640</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -39216,32 +40820,32 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>8626</v>
+        <v>8641</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8627</v>
+        <v>8642</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="s">
-        <v>8496</v>
+        <v>8511</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>8628</v>
+        <v>8643</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8629</v>
+        <v>8644</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>8630</v>
+        <v>8645</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>8631</v>
+        <v>8646</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>8632</v>
+        <v>8647</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>8633</v>
+        <v>8648</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -39270,37 +40874,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>8634</v>
+        <v>8649</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8635</v>
+        <v>8650</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="s">
-        <v>8636</v>
+        <v>8651</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8637</v>
+        <v>8652</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8638</v>
+        <v>8653</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8639</v>
+        <v>8654</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>8640</v>
+        <v>8655</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>8641</v>
+        <v>8656</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>8642</v>
+        <v>8657</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>8643</v>
+        <v>8658</v>
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -39326,43 +40930,43 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>8644</v>
+        <v>8659</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8645</v>
+        <v>8660</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8646</v>
+        <v>8661</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8647</v>
+        <v>8662</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8648</v>
+        <v>8663</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8649</v>
+        <v>8664</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8650</v>
+        <v>8665</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>8644</v>
+        <v>8659</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>8651</v>
+        <v>8666</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>8652</v>
+        <v>8667</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>8653</v>
+        <v>8668</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>8654</v>
+        <v>8669</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>8655</v>
+        <v>8670</v>
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -39388,1364 +40992,3090 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>8656</v>
+        <v>8671</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8657</v>
+        <v>8672</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8658</v>
+        <v>8673</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8659</v>
+        <v>8674</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8660</v>
+        <v>8675</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8661</v>
+        <v>8676</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>8662</v>
+        <v>8677</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>8663</v>
+        <v>8678</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>8664</v>
+        <v>8679</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>8665</v>
+        <v>8680</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>8666</v>
+        <v>8681</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>8667</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>8668</v>
+        <v>8683</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8669</v>
+        <v>8684</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8670</v>
+        <v>8685</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>8671</v>
+        <v>8686</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>8672</v>
+        <v>8687</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>8673</v>
+        <v>8688</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>8674</v>
+        <v>8689</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>8675</v>
+        <v>8690</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>8676</v>
+        <v>8691</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>8677</v>
+        <v>8692</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>8678</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>8679</v>
+        <v>8694</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8680</v>
+        <v>8695</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8681</v>
+        <v>8696</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8682</v>
+        <v>8697</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>8683</v>
+        <v>8698</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>8684</v>
+        <v>8699</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8685</v>
+        <v>8700</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>8686</v>
+        <v>8701</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>8687</v>
+        <v>8702</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>8688</v>
+        <v>8703</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>8689</v>
+        <v>8704</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>8690</v>
+        <v>8705</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>8691</v>
+        <v>8706</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>8692</v>
+        <v>8707</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>8693</v>
+        <v>8708</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>8694</v>
+        <v>8709</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>8695</v>
+        <v>8710</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>8696</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>8712</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8713</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8714</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>8697</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>8698</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8699</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8682</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>8700</v>
+        <v>8715</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8701</v>
+        <v>8716</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>8702</v>
+        <v>8717</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>8703</v>
+        <v>8718</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>8704</v>
+        <v>8719</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>8705</v>
+        <v>8720</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>8706</v>
+        <v>8721</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>8707</v>
+        <v>8722</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>8708</v>
+        <v>8723</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>8709</v>
+        <v>8724</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>8710</v>
+        <v>8725</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>8711</v>
+        <v>8726</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>8712</v>
+        <v>8727</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>8713</v>
+        <v>8728</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>8714</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>8715</v>
+        <v>8730</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8716</v>
+        <v>8731</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8717</v>
+        <v>8732</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8718</v>
+        <v>8733</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>8719</v>
+        <v>8734</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>8720</v>
+        <v>8735</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>8721</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>8722</v>
+        <v>8737</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8723</v>
+        <v>8738</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8724</v>
+        <v>8739</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8725</v>
+        <v>8740</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>8726</v>
+        <v>8741</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8727</v>
+        <v>8742</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>8728</v>
+        <v>8743</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8729</v>
+        <v>8744</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>8730</v>
+        <v>8745</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>8731</v>
+        <v>8746</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>8732</v>
+        <v>8747</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>8733</v>
+        <v>8748</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>8734</v>
+        <v>8749</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>8735</v>
+        <v>8750</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>8736</v>
+        <v>8751</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>8737</v>
+        <v>8752</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>8738</v>
+        <v>8753</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>8739</v>
+        <v>8754</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>8740</v>
+        <v>8755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>8741</v>
+        <v>8756</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8742</v>
+        <v>8757</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8743</v>
+        <v>8758</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>8741</v>
+        <v>8756</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8744</v>
+        <v>8759</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>8741</v>
+        <v>8756</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>8745</v>
+        <v>8760</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>8746</v>
+        <v>8761</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>8741</v>
+        <v>8756</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>8747</v>
+        <v>8762</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>8748</v>
+        <v>8763</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>8749</v>
+        <v>8764</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>8750</v>
+        <v>8765</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>8751</v>
+        <v>8766</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>8752</v>
+        <v>8767</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>8753</v>
+        <v>8768</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>8751</v>
+        <v>8766</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>8754</v>
+        <v>8769</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>8755</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>8756</v>
+        <v>8771</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8757</v>
+        <v>8772</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8758</v>
+        <v>8773</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>8759</v>
+        <v>8774</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8760</v>
+        <v>8775</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>8761</v>
+        <v>8776</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>8762</v>
+        <v>8777</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>8763</v>
+        <v>8778</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>8764</v>
+        <v>8779</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>8765</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>8766</v>
+        <v>8781</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8767</v>
+        <v>8782</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8768</v>
+        <v>8783</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8725</v>
+        <v>8740</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>8769</v>
+        <v>8784</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8770</v>
+        <v>8785</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>8771</v>
+        <v>8786</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>8772</v>
+        <v>8787</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>8773</v>
+        <v>8788</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>8774</v>
+        <v>8789</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>8775</v>
+        <v>8790</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>8776</v>
+        <v>8791</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>8777</v>
+        <v>8792</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>8778</v>
+        <v>8793</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>8779</v>
+        <v>8794</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>8780</v>
+        <v>8795</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>8781</v>
+        <v>8796</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>8782</v>
+        <v>8797</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>8783</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>8784</v>
+        <v>8799</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8785</v>
+        <v>8800</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8786</v>
+        <v>8801</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8787</v>
+        <v>8802</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>8788</v>
+        <v>8803</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>8789</v>
+        <v>8804</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>8790</v>
+        <v>8805</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>8791</v>
+        <v>8806</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>8792</v>
+        <v>8807</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>8793</v>
+        <v>8808</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>8794</v>
+        <v>8809</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>8795</v>
+        <v>8810</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>8796</v>
+        <v>8811</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>8797</v>
+        <v>8812</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>8798</v>
+        <v>8813</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>8799</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>8800</v>
+        <v>8815</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8801</v>
+        <v>8816</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8817</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8802</v>
+        <v>8818</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8803</v>
+        <v>8819</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>8804</v>
+        <v>8820</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>8805</v>
+        <v>8821</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>8806</v>
+        <v>8822</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>8807</v>
+        <v>8823</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>8808</v>
+        <v>8824</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>8809</v>
+        <v>8825</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>8810</v>
+        <v>8826</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>8811</v>
+        <v>8827</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>8812</v>
+        <v>8828</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>8813</v>
+        <v>8829</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8814</v>
+        <v>8830</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8815</v>
+        <v>8831</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8802</v>
+        <v>8818</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8816</v>
+        <v>8832</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8817</v>
+        <v>8833</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8818</v>
+        <v>8834</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>8819</v>
+        <v>8835</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>8820</v>
+        <v>8836</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>8821</v>
+        <v>8837</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>8822</v>
+        <v>8838</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>8823</v>
+        <v>8839</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>8824</v>
+        <v>8840</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>8825</v>
+        <v>8841</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>8826</v>
+        <v>8842</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>8827</v>
+        <v>8843</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>8828</v>
+        <v>8844</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>8829</v>
+        <v>8845</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>8830</v>
+        <v>8846</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>8831</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>8832</v>
+        <v>8848</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8814</v>
+        <v>8830</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>8833</v>
+        <v>8849</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8802</v>
+        <v>8818</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>8834</v>
+        <v>8850</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8835</v>
+        <v>8851</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>8836</v>
+        <v>8852</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>8834</v>
+        <v>8850</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>8837</v>
+        <v>8853</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>8838</v>
+        <v>8854</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>8839</v>
+        <v>8855</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>8840</v>
+        <v>8856</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>8834</v>
+        <v>8850</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>8841</v>
+        <v>8857</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>8842</v>
+        <v>8858</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>8843</v>
+        <v>8859</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>8844</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>8845</v>
+        <v>8861</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8846</v>
+        <v>8862</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8847</v>
+        <v>8863</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>8848</v>
+        <v>8864</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8849</v>
+        <v>8865</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>8850</v>
+        <v>8866</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>8852</v>
+        <v>8868</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>8853</v>
+        <v>8869</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>8854</v>
+        <v>8870</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>8855</v>
+        <v>8871</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>8856</v>
+        <v>8872</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>8857</v>
+        <v>8873</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>8858</v>
+        <v>8874</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>8859</v>
+        <v>8875</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>8860</v>
+        <v>8876</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>8861</v>
+        <v>8877</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>8862</v>
+        <v>8878</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>8863</v>
+        <v>8879</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>8864</v>
+        <v>8880</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>8865</v>
+        <v>8881</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>8866</v>
+        <v>8882</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>8851</v>
+        <v>8867</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>8867</v>
+        <v>8883</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>8868</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>8869</v>
+        <v>8885</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8870</v>
+        <v>8886</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8871</v>
+        <v>8887</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>8872</v>
+        <v>8888</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8873</v>
+        <v>8889</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>8874</v>
+        <v>8890</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>8875</v>
+        <v>8891</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>8876</v>
+        <v>8892</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>8877</v>
+        <v>8893</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>8878</v>
+        <v>8894</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>8879</v>
+        <v>8895</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>8880</v>
+        <v>8896</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>8881</v>
+        <v>8897</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>8882</v>
+        <v>8898</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>8883</v>
+        <v>8899</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>8884</v>
+        <v>8900</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>8885</v>
+        <v>8901</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>8886</v>
+        <v>8902</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>8887</v>
+        <v>8903</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>8888</v>
+        <v>8904</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>8889</v>
+        <v>8905</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>8890</v>
+        <v>8906</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>8891</v>
+        <v>8907</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>8892</v>
+        <v>8908</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>8893</v>
+        <v>8909</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>8894</v>
+        <v>8910</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>8895</v>
+        <v>8911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>8896</v>
+        <v>8912</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8897</v>
+        <v>8913</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8898</v>
+        <v>8914</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8899</v>
+        <v>8915</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8900</v>
+        <v>8916</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>8901</v>
+        <v>8917</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>8902</v>
+        <v>8918</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>8903</v>
+        <v>8919</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>8904</v>
+        <v>8920</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>8905</v>
+        <v>8921</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>8906</v>
+        <v>8922</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>8907</v>
+        <v>8923</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>8908</v>
+        <v>8924</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>8909</v>
+        <v>8925</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>8910</v>
+        <v>8926</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>8911</v>
+        <v>8927</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>8912</v>
+        <v>8928</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>8913</v>
+        <v>8929</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>8914</v>
+        <v>8930</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>8915</v>
+        <v>8931</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>8916</v>
+        <v>8932</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>8917</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>8918</v>
+        <v>8934</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8919</v>
+        <v>8935</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8920</v>
+        <v>8936</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8921</v>
+        <v>8937</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>8922</v>
+        <v>8938</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8923</v>
+        <v>8939</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>8924</v>
+        <v>8940</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>8925</v>
+        <v>8941</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>8926</v>
+        <v>8942</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>8927</v>
+        <v>8943</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>8928</v>
+        <v>8944</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>8929</v>
+        <v>8945</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>8930</v>
+        <v>8946</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>8931</v>
+        <v>8947</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>8932</v>
+        <v>8948</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>8933</v>
+        <v>8949</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>8934</v>
+        <v>8950</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>8935</v>
+        <v>8951</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>8936</v>
+        <v>8952</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>8925</v>
+        <v>8941</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>8937</v>
+        <v>8953</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>8938</v>
+        <v>8954</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>8939</v>
+        <v>8955</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>8940</v>
+        <v>8956</v>
       </c>
       <c r="Y48" s="8" t="s">
+        <v>8957</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>8955</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>8958</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>8959</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>8960</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>8961</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>8962</v>
+      </c>
+      <c r="AF48" s="8" t="s">
         <v>8941</v>
       </c>
-      <c r="Z48" s="8" t="s">
-        <v>8939</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>8942</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>8943</v>
-      </c>
-      <c r="AC48" s="8" t="s">
-        <v>8944</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>8945</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>8946</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>8925</v>
-      </c>
       <c r="AG48" s="1" t="s">
-        <v>8947</v>
+        <v>8963</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>8948</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>8949</v>
+        <v>8965</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8950</v>
+        <v>8966</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8951</v>
+        <v>8967</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8952</v>
+        <v>8968</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>8953</v>
+        <v>8969</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8954</v>
+        <v>8970</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>8955</v>
+        <v>8971</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>8953</v>
+        <v>8969</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>8956</v>
+        <v>8972</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>8957</v>
+        <v>8973</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>8953</v>
+        <v>8969</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>8958</v>
+        <v>8974</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>8959</v>
+        <v>8975</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>8953</v>
+        <v>8969</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>8960</v>
+        <v>8976</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>8961</v>
+        <v>8977</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>8962</v>
+        <v>8978</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>8963</v>
+        <v>8979</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>8964</v>
+        <v>8980</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>8965</v>
+        <v>8981</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>8966</v>
+        <v>8982</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>8953</v>
+        <v>8969</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>8967</v>
+        <v>8983</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>8968</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>8969</v>
+        <v>8985</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8970</v>
+        <v>8986</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8971</v>
+        <v>8987</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8972</v>
+        <v>8988</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>8973</v>
+        <v>8989</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>8974</v>
+        <v>8990</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>8975</v>
+        <v>8991</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>8976</v>
+        <v>8992</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>8977</v>
+        <v>8993</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>8978</v>
+        <v>8994</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>8979</v>
+        <v>8995</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>8980</v>
+        <v>8996</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>8981</v>
+        <v>8997</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>8982</v>
+        <v>8998</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>8983</v>
+        <v>8999</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>8984</v>
+        <v>9000</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>8985</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>8986</v>
+        <v>9002</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8987</v>
+        <v>9003</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>8988</v>
+        <v>9004</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>8469</v>
+        <v>8484</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8990</v>
+        <v>9006</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>8991</v>
+        <v>9007</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>8992</v>
+        <v>9008</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>8993</v>
+        <v>9009</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>8994</v>
+        <v>9010</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>8995</v>
+        <v>9011</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>8996</v>
+        <v>9012</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>8997</v>
+        <v>9013</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>8998</v>
+        <v>9014</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>8999</v>
+        <v>9015</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>9000</v>
+        <v>9016</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>9001</v>
+        <v>9017</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>9002</v>
+        <v>9018</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>9003</v>
+        <v>9019</v>
       </c>
       <c r="Z51" s="8" t="s">
-        <v>8989</v>
+        <v>9005</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>9004</v>
+        <v>9020</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>9005</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>9006</v>
+        <v>9022</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9007</v>
+        <v>9023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9008</v>
+        <v>9024</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9009</v>
+        <v>9025</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>9010</v>
+        <v>9026</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>9011</v>
+        <v>9027</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>9012</v>
+        <v>9028</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>9013</v>
+        <v>9029</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>9014</v>
+        <v>9030</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>9015</v>
+        <v>9031</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>9016</v>
+        <v>9032</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>9018</v>
+        <v>9034</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>9019</v>
+        <v>9035</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>9020</v>
+        <v>9036</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>9021</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>9022</v>
+        <v>9038</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9023</v>
+        <v>9039</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9024</v>
+        <v>9040</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>9025</v>
+        <v>9041</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>9026</v>
+        <v>9042</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9027</v>
+        <v>9043</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>9029</v>
+        <v>9045</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>9030</v>
+        <v>9046</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>9031</v>
+        <v>9047</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>9032</v>
+        <v>9048</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>9033</v>
+        <v>9049</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>9034</v>
+        <v>9050</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>9035</v>
+        <v>9051</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>9036</v>
+        <v>9052</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>9037</v>
+        <v>9053</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>9038</v>
+        <v>9054</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>9039</v>
+        <v>9055</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>9040</v>
+        <v>9056</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>9041</v>
+        <v>9057</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>9042</v>
+        <v>9058</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>9043</v>
+        <v>9059</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>9044</v>
+        <v>9060</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>9041</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>9045</v>
+        <v>9061</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>9063</v>
       </c>
       <c r="U54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>9046</v>
+        <v>9064</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9063</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>9047</v>
+        <v>9065</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>9063</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>9048</v>
+        <v>9066</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>9063</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>9049</v>
+        <v>9067</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>9063</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>9050</v>
+        <v>9068</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>9069</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9070</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9071</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8604</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>9072</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9062</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>9063</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>9073</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>9074</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>9075</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>9076</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>9077</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>9078</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>9079</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>9080</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>9081</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>9082</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>9083</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>9084</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>9085</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>9086</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>9088</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9089</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9090</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9091</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>9092</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9093</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>9094</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>9095</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>9096</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>9097</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>9098</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>9099</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>9100</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>9101</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>9102</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>9103</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>9104</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>9105</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>9107</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9109</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>9110</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>9111</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9112</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>9113</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>9114</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>9115</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>9116</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>9117</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>9118</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>9119</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>9120</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>9121</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>9122</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>9123</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>9124</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>9125</v>
+      </c>
+      <c r="T62" s="8" t="s">
+        <v>9126</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>9127</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>9128</v>
+      </c>
+      <c r="W62" s="8" t="s">
+        <v>9129</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>9130</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>9132</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9134</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9135</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>9136</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>9137</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9138</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>9139</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>9140</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>9141</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>9142</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>9143</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>9144</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>9145</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>9146</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>9147</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>9148</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>9149</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>9150</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>9148</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>9151</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>9152</v>
+      </c>
+      <c r="W63" s="8" t="s">
+        <v>9153</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>9154</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>9155</v>
+      </c>
+      <c r="Z63" s="8" t="s">
+        <v>9145</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>9156</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>9157</v>
+      </c>
+      <c r="AC63" s="8" t="s">
+        <v>9145</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>9158</v>
+      </c>
+      <c r="AE63" s="1" t="s">
+        <v>9159</v>
+      </c>
+      <c r="AF63" s="8" t="s">
+        <v>9142</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>9160</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>9162</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9163</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9164</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9165</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>9166</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9167</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>9168</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>9169</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>9170</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>9171</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>9172</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>9173</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>9174</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>9166</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>9175</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>9176</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>9177</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>9178</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>9179</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>9180</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>9181</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>9182</v>
+      </c>
+      <c r="W64" s="8" t="s">
+        <v>9183</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>9184</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>9185</v>
+      </c>
+      <c r="Z64" s="8" t="s">
+        <v>9186</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>9187</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>9188</v>
+      </c>
+      <c r="AC64" s="8" t="s">
+        <v>9189</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>9190</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>9192</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>9193</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9194</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>9195</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9196</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>9197</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>9198</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>9199</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>9200</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>9201</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>9202</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>9203</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>9204</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>9205</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>9206</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>9207</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>9208</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>9209</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>9210</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>9211</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>9212</v>
+      </c>
+      <c r="W65" s="8" t="s">
+        <v>9213</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>9214</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>9216</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9217</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9194</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>9218</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9219</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>9220</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>9221</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>9222</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>9223</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>9224</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>9225</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>9226</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>9227</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>9228</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>9230</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9231</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9232</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>9233</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>9234</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>9235</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>9236</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>9237</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>9238</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>9239</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>9241</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9242</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9243</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9244</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>9245</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>9246</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>9247</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>9248</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>9249</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>9250</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>9248</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>9251</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>9252</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>9253</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>9254</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>9255</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>9256</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>9257</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>9258</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>9259</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>9260</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>9261</v>
+      </c>
+      <c r="W68" s="8" t="s">
+        <v>9262</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>9263</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>9265</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>9266</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9267</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>9269</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>9270</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>9271</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>9272</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>9273</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>9274</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>9275</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>9276</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>9277</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>9278</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>9279</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>9280</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>9281</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>9282</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>9284</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9285</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9286</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9287</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>9288</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>9289</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>9290</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>9291</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>9292</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>9293</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>9294</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>9295</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>9296</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>9297</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>9298</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>9299</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>9300</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>9301</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>9302</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>9303</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>9304</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>9305</v>
+      </c>
+      <c r="W70" s="8" t="s">
+        <v>9306</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>9307</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>9308</v>
+      </c>
+      <c r="Z70" s="8" t="s">
+        <v>9309</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>9310</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>9311</v>
+      </c>
+      <c r="AC70" s="8" t="s">
+        <v>9312</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>9313</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>9314</v>
+      </c>
+      <c r="AF70" s="8" t="s">
+        <v>9315</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>9316</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>9318</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9319</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9320</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>9321</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9322</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>9323</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>9324</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>9325</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>9326</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>9327</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>9328</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>9329</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>9330</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>9331</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>9332</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>9333</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>9334</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>9335</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>9336</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>9337</v>
+      </c>
+      <c r="W71" s="8" t="s">
+        <v>9335</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>9338</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>9339</v>
+      </c>
+      <c r="Z71" s="8" t="s">
+        <v>9335</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>9340</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>9341</v>
+      </c>
+      <c r="AC71" s="8" t="s">
+        <v>9324</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>9342</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>9343</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>9344</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9345</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9346</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>9347</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>9348</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>9349</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>9350</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>9351</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>9352</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>9353</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>9354</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9355</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>9356</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9357</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>9358</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>9359</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>9360</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>9361</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>9356</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>9362</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>9363</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>9364</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>9365</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>9366</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>9359</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>9367</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>9368</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>9369</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>9370</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>9371</v>
+      </c>
+      <c r="W73" s="8" t="s">
+        <v>9369</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>9372</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>9373</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>9369</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>9374</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>9375</v>
+      </c>
+      <c r="AC73" s="8" t="s">
+        <v>9369</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>9376</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>9378</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9379</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9380</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>9381</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>9382</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>9383</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>9384</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>9385</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>9386</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>9387</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>9388</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>9389</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>9390</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>9391</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>9393</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9394</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9395</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9396</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9397</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>9398</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>9399</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>9400</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>9401</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>9402</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>9403</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>9404</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>9405</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>9406</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>9408</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9409</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9410</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9411</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>9412</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>9413</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>9414</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>9415</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>9416</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>9417</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>9418</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>9419</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>9420</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>9421</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>9422</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>9423</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>9424</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>9425</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>9426</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>9427</v>
+      </c>
+      <c r="AE76" s="1" t="s">
+        <v>9428</v>
+      </c>
+      <c r="AG76" s="1" t="s">
+        <v>9429</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>9431</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9432</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9433</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9434</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>9435</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>9436</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>9437</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>9438</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>9440</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9441</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9442</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>9443</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>9444</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>9445</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>9443</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>9446</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>9447</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>9448</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>9449</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>9450</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>9448</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>9451</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>9452</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>9453</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>9454</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>9455</v>
+      </c>
+      <c r="T78" s="8" t="s">
+        <v>9453</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>9456</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>9458</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9459</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9460</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9268</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>9461</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>9462</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>9463</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>9464</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>9465</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>9466</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>9467</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>9468</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>9469</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>9471</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>9472</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9473</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>9471</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9474</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>9475</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>9471</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>9476</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>9477</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>9478</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>9479</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>9471</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>9480</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>9481</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>9471</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>9482</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>9483</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>9471</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>9484</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>9485</v>
+      </c>
+      <c r="W80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>9486</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9487</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9488</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9489</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>9490</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>9491</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>9492</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>9493</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>9494</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>9495</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>9496</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>9497</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>9498</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>9499</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>9500</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>9501</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>9502</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>9503</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9504</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9505</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>9506</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>9507</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>9508</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>9509</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>9510</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>9511</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>9512</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>9513</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>9514</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>9515</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>9516</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>9517</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>9518</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>9519</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>9520</v>
+      </c>
+      <c r="T82" s="8" t="s">
+        <v>9521</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>9522</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>9523</v>
+      </c>
+      <c r="W82" s="8" t="s">
+        <v>9524</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>9525</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>9526</v>
+      </c>
+      <c r="Z82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>9527</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9504</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9528</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9529</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>9530</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>9531</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>9532</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>9533</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>9534</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>9535</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>9536</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>9537</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>9538</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>9539</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>9540</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>9541</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>9542</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>9543</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>9545</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9546</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9547</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>8484</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>9548</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>9549</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>9550</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>9551</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>9552</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>9553</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>9554</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>9555</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>9556</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>9557</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>9558</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>9559</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>9560</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>9561</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>9562</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>9563</v>
+      </c>
+      <c r="AD84" s="1" t="s">
+        <v>9564</v>
+      </c>
+      <c r="AE84" s="1" t="s">
+        <v>9565</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>9566</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>9567</v>
       </c>
     </row>
   </sheetData>
@@ -40765,68 +44095,68 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9051</v>
+        <v>9568</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9051</v>
+        <v>9568</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9052</v>
+        <v>9569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9053</v>
+        <v>9570</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9054</v>
+        <v>9571</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9055</v>
+        <v>9572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9056</v>
+        <v>9573</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9057</v>
+        <v>9574</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9058</v>
+        <v>9575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9059</v>
+        <v>9576</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9059</v>
+        <v>9576</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9060</v>
+        <v>9577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9061</v>
+        <v>9578</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9061</v>
+        <v>9578</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9062</v>
+        <v>9579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9063</v>
+        <v>9580</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9064</v>
+        <v>9581</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9065</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="8">
@@ -40834,54 +44164,54 @@
         <v>2944</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9066</v>
+        <v>9583</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9067</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9068</v>
+        <v>9585</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9069</v>
+        <v>9586</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9070</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9071</v>
+        <v>9588</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9072</v>
+        <v>9589</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9073</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>9074</v>
+        <v>9591</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9074</v>
+        <v>9591</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9075</v>
+        <v>9592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9076</v>
+        <v>9593</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9077</v>
+        <v>9594</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9078</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="13">
@@ -40892,70 +44222,70 @@
         <v>5019</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9079</v>
+        <v>9596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>9080</v>
+        <v>9597</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9081</v>
+        <v>9598</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9082</v>
+        <v>9599</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>9083</v>
+        <v>9600</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9084</v>
+        <v>9601</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9085</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>9086</v>
+        <v>9603</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9087</v>
+        <v>9604</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9088</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>9089</v>
+        <v>9606</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9090</v>
+        <v>9607</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9091</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>9092</v>
+        <v>9609</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9093</v>
+        <v>9610</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9094</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>9095</v>
+        <v>9612</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9096</v>
+        <v>9613</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5521</v>
@@ -40963,57 +44293,57 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>9097</v>
+        <v>9614</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9098</v>
+        <v>9615</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9099</v>
+        <v>9616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>9100</v>
+        <v>9617</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9101</v>
+        <v>9618</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9102</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>9103</v>
+        <v>9620</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9104</v>
+        <v>9621</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9105</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>9106</v>
+        <v>9623</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9106</v>
+        <v>9623</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9107</v>
+        <v>9624</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>9108</v>
+        <v>9625</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9109</v>
+        <v>9626</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9110</v>
+        <v>9627</v>
       </c>
     </row>
   </sheetData>
